--- a/01_Datos_Produccion.xlsx
+++ b/01_Datos_Produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\OneDrive\Documentos\01_JV\10 Curso AD\03 Corfo - Analisis de Datos\01 Curso\02 Obtencion y Preparacion de datos\0 Casos de Uso\2 archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B622C3D9-5564-4D00-9B23-E0E92DAFDA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC021042-E0B9-49BA-B373-CC8A8BB15B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{DAED6867-0B23-43B7-854A-145CA08DF440}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>COSTO DE PRODUCCIÓN POR VARIEDAD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Insumos</t>
   </si>
@@ -118,9 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -142,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F78B22D2-7AD0-4873-9364-F32AB9A17653}" name="producto_datos_produccion" displayName="producto_datos_produccion" ref="A4:F10" totalsRowShown="0">
-  <autoFilter ref="A4:F10" xr:uid="{F78B22D2-7AD0-4873-9364-F32AB9A17653}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F78B22D2-7AD0-4873-9364-F32AB9A17653}" name="producto_datos_produccion" displayName="producto_datos_produccion" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{F78B22D2-7AD0-4873-9364-F32AB9A17653}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{234A270B-D48D-4F07-888E-36E77415FEB7}" name="Insumos"/>
     <tableColumn id="2" xr3:uid="{D36FC062-6644-4116-ADE7-ABC2F9D678BA}" name="Milanesa"/>
@@ -453,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D7C6F6-9AA6-4F94-AC53-9780C7452E92}">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,148 +461,143 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="D7">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="E7">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="F7">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>61</v>
-      </c>
-      <c r="E8">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>88</v>
-      </c>
-      <c r="C9">
-        <v>85</v>
-      </c>
-      <c r="D9">
-        <v>90</v>
-      </c>
-      <c r="E9">
-        <v>83</v>
-      </c>
-      <c r="F9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>273</v>
-      </c>
-      <c r="C10">
-        <v>262</v>
-      </c>
-      <c r="D10">
-        <v>285</v>
-      </c>
-      <c r="E10">
-        <v>237</v>
-      </c>
-      <c r="F10">
         <v>297</v>
       </c>
     </row>
